--- a/biology/Histoire de la zoologie et de la botanique/Fredericus_Anne_Jentink/Fredericus_Anne_Jentink.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Fredericus_Anne_Jentink/Fredericus_Anne_Jentink.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fredericus Anne Jentink est un zoologiste néerlandais né le 20 août 1844 et mort le 4 novembre 1913.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1875, il devint conservateur du Rijksmuseum van Natuurlijke Historie (le Muséum royal d’histoire naturelle) de Leyde.
 En 1884, il succéda à Hermann Schlegel (1804-1884) comme directeur du muséum et comme éditeur de la revue scientifique, les Notes from the Leyden Museum.
@@ -545,7 +559,9 @@
           <t>Quelques espèces décrites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Boneia bidens Jentink, 1879 - Roussette de Jentik
 Cercopithecus signatus Jentink, 1886 - Cercopithèque de Jentik
@@ -592,7 +608,9 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Céphalophe de Jentink, Cephalophus jentinki Thomas, 1892
 Rattus jentinki Laurie &amp; Hill, 1954
